--- a/Design/Excels/ItemTable.xlsx
+++ b/Design/Excels/ItemTable.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Beautiful-DeathMatch\Design\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JH\UnityProjects\BeautifulDeathMatch\Beautiful-DeathMatch\Design\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36236C6F-BC32-4EBA-A786-09C063E7F39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE32F983-0DD2-44A7-B9E9-6B73D54D2FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="2148" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
     <sheet name="ItemType" sheetId="2" r:id="rId2"/>
+    <sheet name="ItemPosition" sheetId="3" r:id="rId3"/>
+    <sheet name="ItemStartingPlayer" sheetId="4" r:id="rId4"/>
+    <sheet name="StringKey" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,16 +59,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>itemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.item.knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.item.gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.item.armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.item.smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.item.rader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.item.teleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탄복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연막탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상한 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en3</t>
+  </si>
+  <si>
+    <t>en4</t>
+  </si>
+  <si>
+    <t>en5</t>
+  </si>
+  <si>
+    <t>en6</t>
   </si>
 </sst>
 </file>
@@ -390,23 +521,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -419,10 +550,13 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -433,8 +567,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -447,8 +584,11 @@
       <c r="D3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -460,6 +600,77 @@
       </c>
       <c r="D4">
         <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -470,112 +681,612 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7041EE0-3748-4342-B006-84740D2969E0}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0A8C0-25A6-4D9E-869F-200329E1AA6D}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>121</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>131</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67F44E9-C7D1-4048-9EB4-D001FF4559CC}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E390BA2F-98DF-4E9B-B8EA-7EEE2DEF3255}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excels/ItemTable.xlsx
+++ b/Design/Excels/ItemTable.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JH\UnityProjects\BeautifulDeathMatch\Beautiful-DeathMatch\Design\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE32F983-0DD2-44A7-B9E9-6B73D54D2FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A502967-6C2B-4EC9-82A8-3B2AFD13590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="2148" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2016" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
     <sheet name="ItemType" sheetId="2" r:id="rId2"/>
     <sheet name="ItemPosition" sheetId="3" r:id="rId3"/>
     <sheet name="ItemStartingPlayer" sheetId="4" r:id="rId4"/>
-    <sheet name="StringKey" sheetId="5" r:id="rId5"/>
+    <sheet name="BoxData" sheetId="6" r:id="rId5"/>
+    <sheet name="BoxStarting" sheetId="7" r:id="rId6"/>
+    <sheet name="StringKey" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +199,18 @@
   </si>
   <si>
     <t>en6</t>
+  </si>
+  <si>
+    <t>boxId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -681,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7041EE0-3748-4342-B006-84740D2969E0}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -821,6 +835,102 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>302</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>304</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>306</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0A8C0-25A6-4D9E-869F-200329E1AA6D}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1187,6 +1297,189 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E39BD-9FDD-4437-A01B-D4B0A9DFF3BA}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>205</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>206</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>301</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>302</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>303</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>304</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>305</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>306</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693776E6-5BD6-4F87-B95B-F4A4876A1AC8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E390BA2F-98DF-4E9B-B8EA-7EEE2DEF3255}">
   <dimension ref="A1:C8"/>
   <sheetViews>

--- a/Design/Excels/ItemTable.xlsx
+++ b/Design/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JH\UnityProjects\BeautifulDeathMatch\Beautiful-DeathMatch\Design\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A502967-6C2B-4EC9-82A8-3B2AFD13590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB59A9-E6DC-4E31-9092-DA7256D1A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2016" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2016" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="ItemStartingPlayer" sheetId="4" r:id="rId4"/>
     <sheet name="BoxData" sheetId="6" r:id="rId5"/>
     <sheet name="BoxStarting" sheetId="7" r:id="rId6"/>
-    <sheet name="StringKey" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,18 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,54 +138,6 @@
   <si>
     <t>sys.item.teleport</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방탄복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연막탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천리안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수상한 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en3</t>
-  </si>
-  <si>
-    <t>en4</t>
-  </si>
-  <si>
-    <t>en5</t>
-  </si>
-  <si>
-    <t>en6</t>
   </si>
   <si>
     <t>boxId</t>
@@ -621,7 +560,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -633,12 +572,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -650,12 +589,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -667,12 +606,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -684,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +747,7 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -816,7 +755,7 @@
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -824,7 +763,7 @@
         <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -832,7 +771,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -840,7 +779,7 @@
         <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -848,7 +787,7 @@
         <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -856,7 +795,7 @@
         <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -864,7 +803,7 @@
         <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -872,7 +811,7 @@
         <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -880,7 +819,7 @@
         <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -888,7 +827,7 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -896,7 +835,7 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -904,7 +843,7 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -912,7 +851,7 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -920,7 +859,7 @@
         <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -928,7 +867,7 @@
         <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E39BD-9FDD-4437-A01B-D4B0A9DFF3BA}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1318,10 +1257,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1431,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693776E6-5BD6-4F87-B95B-F4A4876A1AC8}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1451,10 +1390,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1471,115 +1410,6 @@
       </c>
       <c r="B4">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E390BA2F-98DF-4E9B-B8EA-7EEE2DEF3255}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excels/ItemTable.xlsx
+++ b/Design/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JH\UnityProjects\BeautifulDeathMatch\Beautiful-DeathMatch\Design\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Beautiful-DeathMatch\Design\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB59A9-E6DC-4E31-9092-DA7256D1A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49705889-E9DE-485D-9FC9-C1575146145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2016" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>itemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackDelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,23 +482,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="21.09765625" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -523,8 +535,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -540,8 +555,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -557,8 +575,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -574,8 +595,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -591,8 +615,11 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -608,8 +635,11 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -624,6 +654,9 @@
       </c>
       <c r="E8" t="s">
         <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -640,13 +673,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -662,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -670,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -678,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -686,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -694,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -702,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -710,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -718,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -726,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -734,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -742,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>101</v>
       </c>
@@ -750,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>111</v>
       </c>
@@ -758,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>121</v>
       </c>
@@ -766,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>131</v>
       </c>
@@ -774,7 +807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>201</v>
       </c>
@@ -782,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>202</v>
       </c>
@@ -790,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>203</v>
       </c>
@@ -798,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>204</v>
       </c>
@@ -806,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>205</v>
       </c>
@@ -814,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>206</v>
       </c>
@@ -822,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>301</v>
       </c>
@@ -830,7 +863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>302</v>
       </c>
@@ -838,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>303</v>
       </c>
@@ -846,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>304</v>
       </c>
@@ -854,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>305</v>
       </c>
@@ -862,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>306</v>
       </c>
@@ -884,12 +917,12 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -917,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -931,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -945,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -959,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -973,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -987,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1001,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1015,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1029,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1043,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1057,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>101</v>
       </c>
@@ -1071,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>111</v>
       </c>
@@ -1085,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>121</v>
       </c>
@@ -1099,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>131</v>
       </c>
@@ -1127,13 +1160,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1149,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1157,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1165,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1181,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1189,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1197,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1205,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1213,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1221,7 +1254,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1241,13 +1274,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1263,7 +1296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201</v>
       </c>
@@ -1271,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>202</v>
       </c>
@@ -1279,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>203</v>
       </c>
@@ -1287,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>204</v>
       </c>
@@ -1295,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>205</v>
       </c>
@@ -1303,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>206</v>
       </c>
@@ -1311,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>301</v>
       </c>
@@ -1319,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>302</v>
       </c>
@@ -1327,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>303</v>
       </c>
@@ -1335,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>304</v>
       </c>
@@ -1343,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>305</v>
       </c>
@@ -1351,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>306</v>
       </c>
@@ -1370,17 +1403,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693776E6-5BD6-4F87-B95B-F4A4876A1AC8}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +1429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1404,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>

--- a/Design/Excels/ItemTable.xlsx
+++ b/Design/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Beautiful-DeathMatch\Design\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49705889-E9DE-485D-9FC9-C1575146145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E583C-8B90-4BDB-BB9F-2DE5463CAE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,13 +564,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
